--- a/data/geo_winners.xlsx
+++ b/data/geo_winners.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhani/Desktop/R Data Science/p8105_finalproject-proposal_marathon/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhani/Desktop/R Data Science/p8105_finalproject_marathon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054434EB-782F-DD48-99EB-98DFF38F356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDBF3E8-8BEF-F244-A919-0705BDFC7C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{F78D7B3F-E0E8-154F-9A08-568B2F1FABC7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{F78D7B3F-E0E8-154F-9A08-568B2F1FABC7}"/>
   </bookViews>
   <sheets>
     <sheet name="women_wheel_chair" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="182">
   <si>
     <t>Japan</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>John J. McDermott</t>
+  </si>
+  <si>
+    <t>Sara Mae Berman</t>
+  </si>
+  <si>
+    <t>Roberta (Bobbi) Gibb</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF2A882-1896-3740-890E-3D42120A59BE}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2630,6 +2636,90 @@
       </c>
       <c r="D49" s="2">
         <v>0.13224537037037037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.13090277777777778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.12855324074074073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.14081018518518518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.14394675925925926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.14004629629629631</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78365503-48CE-5D4D-B164-C7CE22C78413}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
